--- a/suppxls/Scen_EVcosts_IEA-NZE.xlsx
+++ b/suppxls/Scen_EVcosts_IEA-NZE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBA35F-AB21-4CB8-B128-33186F611477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7838924B-3493-4BE8-A90C-E940E83A7688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2CAB5348-3A5C-453D-8E79-FBBD2C206FCF}"/>
+    <workbookView xWindow="3450" yWindow="17880" windowWidth="20730" windowHeight="11160" xr2:uid="{2CAB5348-3A5C-453D-8E79-FBBD2C206FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="INVCOST" sheetId="13" r:id="rId1"/>
@@ -285,11 +285,11 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_-&quot;öS&quot;\ * #,##0.00_-;\-&quot;öS&quot;\ * #,##0.00_-;_-&quot;öS&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0_);\(#,##0\);&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_-&quot;öS&quot;\ * #,##0.00_-;\-&quot;öS&quot;\ * #,##0.00_-;_-&quot;öS&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);&quot;-&quot;"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -767,7 +767,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -790,7 +790,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -860,7 +860,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -872,7 +872,7 @@
     </xf>
     <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -889,7 +889,7 @@
     <xf numFmtId="3" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="29" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="29" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3775,24 +3775,24 @@
       <sheetData sheetId="10">
         <row r="12">
           <cell r="Q12">
-            <v>210570.34666666665</v>
+            <v>310426.75324999995</v>
           </cell>
           <cell r="R12">
-            <v>192063.18729166663</v>
+            <v>286411.01314065541</v>
           </cell>
           <cell r="S12">
-            <v>173556.02791666664</v>
+            <v>269874.58051128784</v>
           </cell>
         </row>
         <row r="16">
           <cell r="Q16">
-            <v>219782.7993333333</v>
+            <v>365374.87552089215</v>
           </cell>
           <cell r="R16">
-            <v>188526.26349999997</v>
+            <v>323903.33842742705</v>
           </cell>
           <cell r="S16">
-            <v>157269.72766666664</v>
+            <v>282431.80133396189</v>
           </cell>
         </row>
         <row r="20">
@@ -3800,10 +3800,10 @@
             <v>523464.7211666666</v>
           </cell>
           <cell r="R20">
-            <v>497965.96824999992</v>
+            <v>482967.59078620322</v>
           </cell>
           <cell r="S20">
-            <v>472467.21533333324</v>
+            <v>455082.62596021092</v>
           </cell>
         </row>
         <row r="24">
@@ -3811,43 +3811,43 @@
             <v>597164.34249999991</v>
           </cell>
           <cell r="R24">
-            <v>512853.94979166659</v>
+            <v>529383.75647700892</v>
           </cell>
           <cell r="S24">
-            <v>428543.55708333326</v>
+            <v>461603.17045401788</v>
           </cell>
         </row>
         <row r="31">
           <cell r="Q31">
-            <v>333951.40916666662</v>
+            <v>706580.24818406906</v>
           </cell>
           <cell r="R31">
-            <v>286655.33520833327</v>
+            <v>626380.5110502555</v>
           </cell>
           <cell r="S31">
-            <v>239359.26124999995</v>
+            <v>546180.77391644183</v>
           </cell>
         </row>
         <row r="49">
           <cell r="Q49">
-            <v>354843.93574999995</v>
+            <v>523464.7211666666</v>
           </cell>
           <cell r="R49">
-            <v>323176.12970833329</v>
+            <v>482967.59078620322</v>
           </cell>
           <cell r="S49">
-            <v>291508.32366666663</v>
+            <v>455082.62596021092</v>
           </cell>
         </row>
         <row r="52">
           <cell r="Q52">
-            <v>439401.09058333328</v>
+            <v>597164.34249999991</v>
           </cell>
           <cell r="R52">
-            <v>377299.28912499995</v>
+            <v>529383.75647700892</v>
           </cell>
           <cell r="S52">
-            <v>315197.48766666662</v>
+            <v>461603.17045401788</v>
           </cell>
         </row>
       </sheetData>
@@ -3879,39 +3879,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="7">
-          <cell r="C7">
-            <v>2020</v>
-          </cell>
-          <cell r="D7">
-            <v>2022</v>
-          </cell>
-          <cell r="E7">
-            <v>2030</v>
-          </cell>
-          <cell r="F7">
-            <v>2050</v>
-          </cell>
-        </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>BEV</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>STEPS</v>
-          </cell>
-          <cell r="C11">
-            <v>1.0475609756097555</v>
-          </cell>
-          <cell r="D11">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>0.80975609756097566</v>
-          </cell>
-          <cell r="F11">
-            <v>0.71707317073170729</v>
-          </cell>
           <cell r="G11">
             <v>1</v>
           </cell>
@@ -3935,21 +3903,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="B12" t="str">
-            <v>APS</v>
-          </cell>
-          <cell r="C12">
-            <v>1.0475609756097555</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-          <cell r="E12">
-            <v>0.78536585365853662</v>
-          </cell>
-          <cell r="F12">
-            <v>0.68780487804878043</v>
-          </cell>
           <cell r="G12">
             <v>1</v>
           </cell>
@@ -3973,21 +3926,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="B13" t="str">
-            <v>NZE</v>
-          </cell>
-          <cell r="C13">
-            <v>1.0475609756097555</v>
-          </cell>
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-          <cell r="E13">
-            <v>0.76097560975609757</v>
-          </cell>
-          <cell r="F13">
-            <v>0.66829268292682931</v>
-          </cell>
           <cell r="G13">
             <v>1</v>
           </cell>
@@ -4011,24 +3949,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>HEV</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>STEPS</v>
-          </cell>
-          <cell r="C17">
-            <v>1.0475609756097555</v>
-          </cell>
-          <cell r="D17">
-            <v>1</v>
-          </cell>
-          <cell r="E17">
-            <v>0.9107142857142857</v>
-          </cell>
-          <cell r="F17">
-            <v>0.91666666666666663</v>
-          </cell>
           <cell r="G17">
             <v>1</v>
           </cell>
@@ -4052,21 +3972,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="B18" t="str">
-            <v>APS</v>
-          </cell>
-          <cell r="C18">
-            <v>1.0475609756097555</v>
-          </cell>
-          <cell r="D18">
-            <v>1</v>
-          </cell>
-          <cell r="E18">
-            <v>0.90476190476190477</v>
-          </cell>
-          <cell r="F18">
-            <v>0.9107142857142857</v>
-          </cell>
           <cell r="G18">
             <v>1</v>
           </cell>
@@ -4090,21 +3995,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="B19" t="str">
-            <v>NZE</v>
-          </cell>
-          <cell r="C19">
-            <v>1.0475609756097555</v>
-          </cell>
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="E19">
-            <v>0.89880952380952384</v>
-          </cell>
-          <cell r="F19">
-            <v>0.90476190476190477</v>
-          </cell>
           <cell r="G19">
             <v>1</v>
           </cell>
@@ -4140,10 +4030,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4618,11 +4504,11 @@
       </c>
       <c r="E8" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B8,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>497.96596824999995</v>
+        <v>482.96759078620323</v>
       </c>
       <c r="F8" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B8,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>472.46721533333323</v>
+        <v>455.08262596021092</v>
       </c>
       <c r="G8" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B8,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
@@ -4657,11 +4543,11 @@
       </c>
       <c r="E9" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B9,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>512.85394979166665</v>
+        <v>529.38375647700889</v>
       </c>
       <c r="F9" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B9,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>428.54355708333327</v>
+        <v>461.60317045401791</v>
       </c>
       <c r="G9" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B9,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
@@ -4692,27 +4578,27 @@
       </c>
       <c r="D10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>210.57034666666667</v>
+        <v>310.42675324999993</v>
       </c>
       <c r="E10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>192.06318729166662</v>
+        <v>286.41101314065543</v>
       </c>
       <c r="F10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>173.55602791666664</v>
+        <v>269.87458051128783</v>
       </c>
       <c r="G10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>180.96892320342971</v>
+        <v>266.78777975380615</v>
       </c>
       <c r="H10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>181.2680453905428</v>
+        <v>267.22875129058929</v>
       </c>
       <c r="I10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>181.86628976476902</v>
+        <v>268.11069436415556</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -4731,27 +4617,27 @@
       </c>
       <c r="D11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>219.78279933333332</v>
+        <v>365.37487552089215</v>
       </c>
       <c r="E11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>188.52626349999997</v>
+        <v>323.90333842742706</v>
       </c>
       <c r="F11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>157.26972766666665</v>
+        <v>282.43180133396191</v>
       </c>
       <c r="G11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>154.79463748156786</v>
+        <v>257.3362045286845</v>
       </c>
       <c r="H11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>149.93331828793183</v>
+        <v>249.25457165918857</v>
       </c>
       <c r="I11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>140.2106799006597</v>
+        <v>233.09130592019667</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -4770,27 +4656,27 @@
       </c>
       <c r="D12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>333.95140916666662</v>
+        <v>706.58024818406909</v>
       </c>
       <c r="E12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>286.65533520833327</v>
+        <v>626.38051105025556</v>
       </c>
       <c r="F12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>239.35926124999995</v>
+        <v>546.18077391644181</v>
       </c>
       <c r="G12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>235.20442671226257</v>
+        <v>497.64965093290135</v>
       </c>
       <c r="H12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>227.8178414105551</v>
+        <v>482.02098420938864</v>
       </c>
       <c r="I12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>213.04467080714011</v>
+        <v>450.76365076236311</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -4809,27 +4695,27 @@
       </c>
       <c r="D13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>354.84393574999996</v>
+        <v>523.46472116666666</v>
       </c>
       <c r="E13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>323.17612970833329</v>
+        <v>482.96759078620323</v>
       </c>
       <c r="F13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>291.50832366666663</v>
+        <v>455.08262596021092</v>
       </c>
       <c r="G13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>304.96091199202959</v>
+        <v>449.87743252602598</v>
       </c>
       <c r="H13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>305.46497961515689</v>
+        <v>450.62103158805246</v>
       </c>
       <c r="I13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>306.47311486141149</v>
+        <v>452.10822971210547</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4848,27 +4734,27 @@
       </c>
       <c r="D14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>439.40109058333331</v>
+        <v>597.16434249999998</v>
       </c>
       <c r="E14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>377.29928912499997</v>
+        <v>529.38375647700889</v>
       </c>
       <c r="F14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>315.19748766666663</v>
+        <v>461.60317045401791</v>
       </c>
       <c r="G14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>309.47341071352383</v>
+        <v>420.58722609138579</v>
       </c>
       <c r="H14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>299.75441103822294</v>
+        <v>407.37870163562314</v>
       </c>
       <c r="I14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$D$9:$J$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$D$8:$J$8,0))*0.001</f>
-        <v>280.31641168762127</v>
+        <v>380.96165272409786</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -4936,7 +4822,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5107,11 +4993,11 @@
       </c>
       <c r="E8" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B8,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.9901119250801274</v>
+        <v>3.8699326184791922</v>
       </c>
       <c r="F8" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B8,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.7857949946581186</v>
+        <v>3.6464954003222023</v>
       </c>
       <c r="G8" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B8,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
@@ -5146,11 +5032,11 @@
       </c>
       <c r="E9" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B9,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.743459487530413</v>
+        <v>3.8641150107810867</v>
       </c>
       <c r="F9" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B9,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.1280551611922132</v>
+        <v>3.3693662076935613</v>
       </c>
       <c r="G9" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B9,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
@@ -5181,27 +5067,27 @@
       </c>
       <c r="D10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.2625576248313095</v>
+        <v>6.2839423734817803</v>
       </c>
       <c r="E10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.887918771086369</v>
+        <v>5.7977937882723776</v>
       </c>
       <c r="F10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.5132799173414302</v>
+        <v>5.4630481884876083</v>
       </c>
       <c r="G10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.6633385263852167</v>
+        <v>5.4005623431944558</v>
       </c>
       <c r="H10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.6693936313875062</v>
+        <v>5.4094888925220506</v>
       </c>
       <c r="I10" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B10,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.6815038413920855</v>
+        <v>5.4273419911772391</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -5220,27 +5106,27 @@
       </c>
       <c r="D11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.3607698280423275</v>
+        <v>7.2495014984303996</v>
       </c>
       <c r="E11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.7406004662698407</v>
+        <v>6.4266535402267273</v>
       </c>
       <c r="F11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.1204311044973538</v>
+        <v>5.6038055820230532</v>
       </c>
       <c r="G11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.0713221722533306</v>
+        <v>5.1058770739818353</v>
       </c>
       <c r="H11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>2.9748674263478532</v>
+        <v>4.9455272154600909</v>
       </c>
       <c r="I11" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B11,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>2.7819579345368983</v>
+        <v>4.6248274984166002</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -5259,27 +5145,27 @@
       </c>
       <c r="D12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>6.2304367381840784</v>
+        <v>13.18246731686696</v>
       </c>
       <c r="E12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>5.3480472986629337</v>
+        <v>11.686203564370437</v>
       </c>
       <c r="F12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.4656578591417899</v>
+        <v>10.189939811873915</v>
       </c>
       <c r="G12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.3881422894078836</v>
+        <v>9.2845084129272646</v>
       </c>
       <c r="H12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.2503328621372214</v>
+        <v>8.992928809876652</v>
       </c>
       <c r="I12" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B12,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.9747140075958969</v>
+        <v>8.4097696037754304</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -5298,27 +5184,27 @@
       </c>
       <c r="D13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.2649511508413465</v>
+        <v>6.2916432832532045</v>
       </c>
       <c r="E13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.884328482071314</v>
+        <v>5.8048989277187895</v>
       </c>
       <c r="F13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.5037058133012819</v>
+        <v>5.4697431004833046</v>
       </c>
       <c r="G13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.665395576827279</v>
+        <v>5.4071806793993513</v>
       </c>
       <c r="H13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.6714540819129433</v>
+        <v>5.4161181681256316</v>
       </c>
       <c r="I13" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B13,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.6835710920842732</v>
+        <v>5.4339931455781905</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -5337,27 +5223,27 @@
       </c>
       <c r="D14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(D$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>4.3591378034060835</v>
+        <v>5.9242494295634911</v>
       </c>
       <c r="E14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(E$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.7430485032242058</v>
+        <v>5.2518229809227073</v>
       </c>
       <c r="F14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(F$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.1269592030423272</v>
+        <v>4.5793965322819234</v>
       </c>
       <c r="G14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(G$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>3.070172725332577</v>
+        <v>4.1724923223351764</v>
       </c>
       <c r="H14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(H$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>2.9737540777601481</v>
+        <v>4.0414553733692768</v>
       </c>
       <c r="I14" s="27">
         <f>INDEX(EV_HEV_CostProjns!$M$9:$S$15,MATCH($B14,EV_HEV_CostProjns!$B$9:$B$15,0),MATCH(I$5,EV_HEV_CostProjns!$M$8:$S$8,0))*0.001</f>
-        <v>2.7809167826152903</v>
+        <v>3.7793814754374786</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -5407,7 +5293,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5757,31 +5643,31 @@
       </c>
       <c r="D9" s="40">
         <f>[6]CostProjections!Q12</f>
-        <v>210570.34666666665</v>
+        <v>310426.75324999995</v>
       </c>
       <c r="E9" s="40">
         <f>[6]CostProjections!R12</f>
-        <v>192063.18729166663</v>
+        <v>286411.01314065541</v>
       </c>
       <c r="F9" s="40">
         <f>[6]CostProjections!S12</f>
-        <v>173556.02791666664</v>
+        <v>269874.58051128784</v>
       </c>
       <c r="G9" s="42">
         <f>$D9*G$3</f>
-        <v>180968.9232034297</v>
+        <v>266787.77975380613</v>
       </c>
       <c r="H9" s="42">
         <f>$D9*H$3</f>
-        <v>181268.0453905428</v>
+        <v>267228.75129058928</v>
       </c>
       <c r="I9" s="42">
         <f>$D9*I$3</f>
-        <v>181567.16757765593</v>
+        <v>267669.72282737243</v>
       </c>
       <c r="J9" s="42">
         <f>$D9*J$3</f>
-        <v>181866.28976476903</v>
+        <v>268110.69436415558</v>
       </c>
       <c r="K9" s="41">
         <f>[6]IEACostData_passengervehs!$B41</f>
@@ -5791,32 +5677,32 @@
         <v>46</v>
       </c>
       <c r="M9" s="40">
-        <f>D9*$K9</f>
-        <v>4262.5576248313091</v>
+        <f t="shared" ref="M9:S15" si="2">D9*$K9</f>
+        <v>6283.9423734817801</v>
       </c>
       <c r="N9" s="40">
-        <f>E9*$K9</f>
-        <v>3887.9187710863689</v>
+        <f t="shared" si="2"/>
+        <v>5797.7937882723772</v>
       </c>
       <c r="O9" s="40">
-        <f>F9*$K9</f>
-        <v>3513.2799173414301</v>
+        <f t="shared" si="2"/>
+        <v>5463.0481884876081</v>
       </c>
       <c r="P9" s="40">
-        <f>G9*$K9</f>
-        <v>3663.3385263852165</v>
+        <f t="shared" si="2"/>
+        <v>5400.5623431944559</v>
       </c>
       <c r="Q9" s="40">
-        <f>H9*$K9</f>
-        <v>3669.393631387506</v>
+        <f t="shared" si="2"/>
+        <v>5409.4888925220503</v>
       </c>
       <c r="R9" s="40">
-        <f>I9*$K9</f>
-        <v>3675.4487363897961</v>
+        <f t="shared" si="2"/>
+        <v>5418.4154418496446</v>
       </c>
       <c r="S9" s="40">
-        <f>J9*$K9</f>
-        <v>3681.5038413920856</v>
+        <f t="shared" si="2"/>
+        <v>5427.3419911772389</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -5831,31 +5717,31 @@
       </c>
       <c r="D10" s="40">
         <f>[6]CostProjections!Q16</f>
-        <v>219782.7993333333</v>
+        <v>365374.87552089215</v>
       </c>
       <c r="E10" s="40">
         <f>[6]CostProjections!R16</f>
-        <v>188526.26349999997</v>
+        <v>323903.33842742705</v>
       </c>
       <c r="F10" s="40">
         <f>[6]CostProjections!S16</f>
-        <v>157269.72766666664</v>
+        <v>282431.80133396189</v>
       </c>
       <c r="G10" s="42">
         <f>$D10*G$4</f>
-        <v>154794.63748156786</v>
+        <v>257336.20452868452</v>
       </c>
       <c r="H10" s="42">
         <f>$D10*H$4</f>
-        <v>149933.31828793182</v>
+        <v>249254.57165918857</v>
       </c>
       <c r="I10" s="42">
         <f>$D10*I$4</f>
-        <v>145071.99909429575</v>
+        <v>241172.93878969259</v>
       </c>
       <c r="J10" s="42">
         <f>$D10*J$4</f>
-        <v>140210.67990065968</v>
+        <v>233091.30592019667</v>
       </c>
       <c r="K10" s="41">
         <f>[6]IEACostData_passengervehs!$B42</f>
@@ -5865,32 +5751,32 @@
         <v>46</v>
       </c>
       <c r="M10" s="40">
-        <f>D10*$K10</f>
-        <v>4360.7698280423274</v>
+        <f t="shared" si="2"/>
+        <v>7249.5014984303998</v>
       </c>
       <c r="N10" s="40">
-        <f>E10*$K10</f>
-        <v>3740.6004662698406</v>
+        <f t="shared" si="2"/>
+        <v>6426.6535402267273</v>
       </c>
       <c r="O10" s="40">
-        <f>F10*$K10</f>
-        <v>3120.4311044973538</v>
+        <f t="shared" si="2"/>
+        <v>5603.8055820230529</v>
       </c>
       <c r="P10" s="40">
-        <f>G10*$K10</f>
-        <v>3071.3221722533303</v>
+        <f t="shared" si="2"/>
+        <v>5105.8770739818356</v>
       </c>
       <c r="Q10" s="40">
-        <f>H10*$K10</f>
-        <v>2974.8674263478533</v>
+        <f t="shared" si="2"/>
+        <v>4945.5272154600907</v>
       </c>
       <c r="R10" s="40">
-        <f>I10*$K10</f>
-        <v>2878.4126804423759</v>
+        <f t="shared" si="2"/>
+        <v>4785.1773569383449</v>
       </c>
       <c r="S10" s="40">
-        <f>J10*$K10</f>
-        <v>2781.9579345368984</v>
+        <f t="shared" si="2"/>
+        <v>4624.8274984166001</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -5909,11 +5795,11 @@
       </c>
       <c r="E11" s="40">
         <f>[6]CostProjections!R20</f>
-        <v>497965.96824999992</v>
+        <v>482967.59078620322</v>
       </c>
       <c r="F11" s="40">
         <f>[6]CostProjections!S20</f>
-        <v>472467.21533333324</v>
+        <v>455082.62596021092</v>
       </c>
       <c r="G11" s="42">
         <f>$D11*G$3</f>
@@ -5939,31 +5825,31 @@
         <v>46</v>
       </c>
       <c r="M11" s="40">
-        <f>D11*$K11</f>
+        <f t="shared" si="2"/>
         <v>4194.4288555021358</v>
       </c>
       <c r="N11" s="40">
-        <f>E11*$K11</f>
-        <v>3990.1119250801271</v>
+        <f t="shared" si="2"/>
+        <v>3869.9326184791921</v>
       </c>
       <c r="O11" s="40">
-        <f>F11*$K11</f>
-        <v>3785.7949946581184</v>
+        <f t="shared" si="2"/>
+        <v>3646.4954003222024</v>
       </c>
       <c r="P11" s="40">
-        <f>G11*$K11</f>
+        <f t="shared" si="2"/>
         <v>3604.7871195995667</v>
       </c>
       <c r="Q11" s="40">
-        <f>H11*$K11</f>
+        <f t="shared" si="2"/>
         <v>3610.7454454170866</v>
       </c>
       <c r="R11" s="40">
-        <f>I11*$K11</f>
+        <f t="shared" si="2"/>
         <v>3616.7037712346068</v>
       </c>
       <c r="S11" s="40">
-        <f>J11*$K11</f>
+        <f t="shared" si="2"/>
         <v>3622.6620970521267</v>
       </c>
     </row>
@@ -5983,26 +5869,26 @@
       </c>
       <c r="E12" s="40">
         <f>[6]CostProjections!R24</f>
-        <v>512853.94979166659</v>
+        <v>529383.75647700892</v>
       </c>
       <c r="F12" s="40">
         <f>[6]CostProjections!S24</f>
-        <v>428543.55708333326</v>
+        <v>461603.17045401788</v>
       </c>
       <c r="G12" s="42">
-        <f>$D12*G$4</f>
+        <f t="shared" ref="G12:J13" si="3">$D12*G$4</f>
         <v>420587.22609138576</v>
       </c>
       <c r="H12" s="42">
-        <f>$D12*H$4</f>
+        <f t="shared" si="3"/>
         <v>407378.70163562312</v>
       </c>
       <c r="I12" s="42">
-        <f>$D12*I$4</f>
+        <f t="shared" si="3"/>
         <v>394170.17717986042</v>
       </c>
       <c r="J12" s="42">
-        <f>$D12*J$4</f>
+        <f t="shared" si="3"/>
         <v>380961.65272409783</v>
       </c>
       <c r="K12" s="41">
@@ -6013,31 +5899,31 @@
         <v>46</v>
       </c>
       <c r="M12" s="40">
-        <f>D12*$K12</f>
+        <f t="shared" si="2"/>
         <v>4358.8638138686119</v>
       </c>
       <c r="N12" s="40">
-        <f>E12*$K12</f>
-        <v>3743.4594875304128</v>
+        <f t="shared" si="2"/>
+        <v>3864.1150107810868</v>
       </c>
       <c r="O12" s="40">
-        <f>F12*$K12</f>
-        <v>3128.0551611922133</v>
+        <f t="shared" si="2"/>
+        <v>3369.3662076935611</v>
       </c>
       <c r="P12" s="40">
-        <f>G12*$K12</f>
+        <f t="shared" si="2"/>
         <v>3069.9797524918667</v>
       </c>
       <c r="Q12" s="40">
-        <f>H12*$K12</f>
+        <f t="shared" si="2"/>
         <v>2973.5671652235264</v>
       </c>
       <c r="R12" s="40">
-        <f>I12*$K12</f>
+        <f t="shared" si="2"/>
         <v>2877.1545779551852</v>
       </c>
       <c r="S12" s="40">
-        <f>J12*$K12</f>
+        <f t="shared" si="2"/>
         <v>2780.7419906868454</v>
       </c>
     </row>
@@ -6053,31 +5939,31 @@
       </c>
       <c r="D13" s="40">
         <f>[6]CostProjections!Q31</f>
-        <v>333951.40916666662</v>
+        <v>706580.24818406906</v>
       </c>
       <c r="E13" s="40">
         <f>[6]CostProjections!R31</f>
-        <v>286655.33520833327</v>
+        <v>626380.5110502555</v>
       </c>
       <c r="F13" s="40">
         <f>[6]CostProjections!S31</f>
-        <v>239359.26124999995</v>
+        <v>546180.77391644183</v>
       </c>
       <c r="G13" s="42">
-        <f>$D13*G$4</f>
-        <v>235204.42671226256</v>
+        <f t="shared" si="3"/>
+        <v>497649.65093290136</v>
       </c>
       <c r="H13" s="42">
-        <f>$D13*H$4</f>
-        <v>227817.84141055509</v>
+        <f t="shared" si="3"/>
+        <v>482020.98420938861</v>
       </c>
       <c r="I13" s="42">
-        <f>$D13*I$4</f>
-        <v>220431.25610884756</v>
+        <f t="shared" si="3"/>
+        <v>466392.31748587586</v>
       </c>
       <c r="J13" s="42">
-        <f>$D13*J$4</f>
-        <v>213044.67080714009</v>
+        <f t="shared" si="3"/>
+        <v>450763.6507623631</v>
       </c>
       <c r="K13" s="41">
         <f>[6]IEACostData_passengervehs!H42</f>
@@ -6087,32 +5973,32 @@
         <v>46</v>
       </c>
       <c r="M13" s="40">
-        <f>D13*$K13</f>
-        <v>6230.4367381840784</v>
+        <f t="shared" si="2"/>
+        <v>13182.46731686696</v>
       </c>
       <c r="N13" s="40">
-        <f>E13*$K13</f>
-        <v>5348.0472986629338</v>
+        <f t="shared" si="2"/>
+        <v>11686.203564370437</v>
       </c>
       <c r="O13" s="40">
-        <f>F13*$K13</f>
-        <v>4465.6578591417901</v>
+        <f t="shared" si="2"/>
+        <v>10189.939811873914</v>
       </c>
       <c r="P13" s="40">
-        <f>G13*$K13</f>
-        <v>4388.1422894078833</v>
+        <f t="shared" si="2"/>
+        <v>9284.5084129272636</v>
       </c>
       <c r="Q13" s="40">
-        <f>H13*$K13</f>
-        <v>4250.3328621372211</v>
+        <f t="shared" si="2"/>
+        <v>8992.9288098766519</v>
       </c>
       <c r="R13" s="40">
-        <f>I13*$K13</f>
-        <v>4112.523434866559</v>
+        <f t="shared" si="2"/>
+        <v>8701.3492068260421</v>
       </c>
       <c r="S13" s="40">
-        <f>J13*$K13</f>
-        <v>3974.7140075958969</v>
+        <f t="shared" si="2"/>
+        <v>8409.7696037754304</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6127,31 +6013,31 @@
       </c>
       <c r="D14" s="40">
         <f>[6]CostProjections!Q49</f>
-        <v>354843.93574999995</v>
+        <v>523464.7211666666</v>
       </c>
       <c r="E14" s="40">
         <f>[6]CostProjections!R49</f>
-        <v>323176.12970833329</v>
+        <v>482967.59078620322</v>
       </c>
       <c r="F14" s="40">
         <f>[6]CostProjections!S49</f>
-        <v>291508.32366666663</v>
+        <v>455082.62596021092</v>
       </c>
       <c r="G14" s="42">
         <f>$D14*G$3</f>
-        <v>304960.91199202958</v>
+        <v>449877.43252602598</v>
       </c>
       <c r="H14" s="42">
         <f>$D14*H$3</f>
-        <v>305464.97961515689</v>
+        <v>450621.03158805246</v>
       </c>
       <c r="I14" s="42">
         <f>$D14*I$3</f>
-        <v>305969.0472382842</v>
+        <v>451364.63065007899</v>
       </c>
       <c r="J14" s="42">
         <f>$D14*J$3</f>
-        <v>306473.11486141151</v>
+        <v>452108.22971210547</v>
       </c>
       <c r="K14" s="41">
         <f>[6]IEACostData_passengervehs!E41</f>
@@ -6161,32 +6047,32 @@
         <v>46</v>
       </c>
       <c r="M14" s="40">
-        <f>D14*$K14</f>
-        <v>4264.9511508413461</v>
+        <f t="shared" si="2"/>
+        <v>6291.6432832532046</v>
       </c>
       <c r="N14" s="40">
-        <f>E14*$K14</f>
-        <v>3884.3284820713138</v>
+        <f t="shared" si="2"/>
+        <v>5804.8989277187893</v>
       </c>
       <c r="O14" s="40">
-        <f>F14*$K14</f>
-        <v>3503.705813301282</v>
+        <f t="shared" si="2"/>
+        <v>5469.7431004833043</v>
       </c>
       <c r="P14" s="40">
-        <f>G14*$K14</f>
-        <v>3665.395576827279</v>
+        <f t="shared" si="2"/>
+        <v>5407.180679399351</v>
       </c>
       <c r="Q14" s="40">
-        <f>H14*$K14</f>
-        <v>3671.4540819129434</v>
+        <f t="shared" si="2"/>
+        <v>5416.1181681256312</v>
       </c>
       <c r="R14" s="40">
-        <f>I14*$K14</f>
-        <v>3677.5125869986082</v>
+        <f t="shared" si="2"/>
+        <v>5425.0556568519114</v>
       </c>
       <c r="S14" s="40">
-        <f>J14*$K14</f>
-        <v>3683.571092084273</v>
+        <f t="shared" si="2"/>
+        <v>5433.9931455781907</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -6201,31 +6087,31 @@
       </c>
       <c r="D15" s="40">
         <f>[6]CostProjections!Q52</f>
-        <v>439401.09058333328</v>
+        <v>597164.34249999991</v>
       </c>
       <c r="E15" s="40">
         <f>[6]CostProjections!R52</f>
-        <v>377299.28912499995</v>
+        <v>529383.75647700892</v>
       </c>
       <c r="F15" s="40">
         <f>[6]CostProjections!S52</f>
-        <v>315197.48766666662</v>
+        <v>461603.17045401788</v>
       </c>
       <c r="G15" s="42">
         <f>$D15*G$4</f>
-        <v>309473.4107135238</v>
+        <v>420587.22609138576</v>
       </c>
       <c r="H15" s="42">
         <f>$D15*H$4</f>
-        <v>299754.41103822296</v>
+        <v>407378.70163562312</v>
       </c>
       <c r="I15" s="42">
         <f>$D15*I$4</f>
-        <v>290035.41136292211</v>
+        <v>394170.17717986042</v>
       </c>
       <c r="J15" s="42">
         <f>$D15*J$4</f>
-        <v>280316.41168762126</v>
+        <v>380961.65272409783</v>
       </c>
       <c r="K15" s="41">
         <f>[6]IEACostData_passengervehs!E42</f>
@@ -6235,32 +6121,32 @@
         <v>46</v>
       </c>
       <c r="M15" s="40">
-        <f>D15*$K15</f>
-        <v>4359.1378034060835</v>
+        <f t="shared" si="2"/>
+        <v>5924.2494295634906</v>
       </c>
       <c r="N15" s="40">
-        <f>E15*$K15</f>
-        <v>3743.0485032242059</v>
+        <f t="shared" si="2"/>
+        <v>5251.8229809227068</v>
       </c>
       <c r="O15" s="40">
-        <f>F15*$K15</f>
-        <v>3126.9592030423273</v>
+        <f t="shared" si="2"/>
+        <v>4579.3965322819231</v>
       </c>
       <c r="P15" s="40">
-        <f>G15*$K15</f>
-        <v>3070.1727253325771</v>
+        <f t="shared" si="2"/>
+        <v>4172.4923223351761</v>
       </c>
       <c r="Q15" s="40">
-        <f>H15*$K15</f>
-        <v>2973.754077760148</v>
+        <f t="shared" si="2"/>
+        <v>4041.4553733692769</v>
       </c>
       <c r="R15" s="40">
-        <f>I15*$K15</f>
-        <v>2877.3354301877193</v>
+        <f t="shared" si="2"/>
+        <v>3910.4184244033768</v>
       </c>
       <c r="S15" s="40">
-        <f>J15*$K15</f>
-        <v>2780.9167826152902</v>
+        <f t="shared" si="2"/>
+        <v>3779.3814754374785</v>
       </c>
     </row>
   </sheetData>
